--- a/biology/Botanique/Pirole_unilatérale/Pirole_unilatérale.xlsx
+++ b/biology/Botanique/Pirole_unilatérale/Pirole_unilatérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pirole_unilat%C3%A9rale</t>
+          <t>Pirole_unilatérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthilia secunda
-La pirole unilatérale ou pyrole unilatérale  (Orthilia secunda ou Ramischia secunda) est une espèce de plante à fleurs du genre Orthilia et de la famille des Pyrolaceae dans la classification classique de Cronquist (1981)[1] ou des Ericaceae dans la classification phylogénétique APG III (2009)[2].
+La pirole unilatérale ou pyrole unilatérale  (Orthilia secunda ou Ramischia secunda) est une espèce de plante à fleurs du genre Orthilia et de la famille des Pyrolaceae dans la classification classique de Cronquist (1981) ou des Ericaceae dans la classification phylogénétique APG III (2009).
 Cette espèce est la seule de son genre.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pirole_unilat%C3%A9rale</t>
+          <t>Pirole_unilatérale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
 Les fleurs sont toutes orientées dans la même direction.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pirole_unilat%C3%A9rale</t>
+          <t>Pirole_unilatérale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se développe dans les sous-bois, principalement sur sols calcaires, à des altitudes variant de 800 à 2 000 mètres.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pirole_unilat%C3%A9rale</t>
+          <t>Pirole_unilatérale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a une distribution circumboréale, en Amérique du nord, Asie et Europe.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pirole_unilat%C3%A9rale</t>
+          <t>Pirole_unilatérale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Lorraine et en Champagne-Ardenne.
 </t>
